--- a/reservas_hotel.xlsx
+++ b/reservas_hotel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pousada-97--main\Pousada-97--main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jadson\Downloads\ETL-Definitivo\Pousada-97--main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839D4C8D-DB95-4854-92C6-37169E7680FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A85027-1D30-4E93-9186-E308B1512487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cliente" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>Id</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>480.222.698-27</t>
+  </si>
+  <si>
+    <t>480.222.000-27</t>
   </si>
 </sst>
 </file>
@@ -264,12 +267,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,16 +576,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -725,6 +730,20 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>9991999222</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -736,7 +755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -822,7 +843,7 @@
         <v>107</v>
       </c>
       <c r="B8">
-        <v>270</v>
+        <v>270.5</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -876,12 +897,12 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -898,8 +919,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
+      <c r="A2" s="3">
+        <v>45778</v>
       </c>
       <c r="B2">
         <v>101</v>
@@ -909,8 +930,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
+      <c r="A3" s="3">
+        <v>45790</v>
       </c>
       <c r="B3">
         <v>102</v>
@@ -920,8 +941,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>44</v>
+      <c r="A4" s="3">
+        <v>45791</v>
       </c>
       <c r="B4">
         <v>103</v>
@@ -931,8 +952,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
+      <c r="A5" s="3">
+        <v>45789</v>
       </c>
       <c r="B5">
         <v>104</v>
@@ -942,8 +963,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
+      <c r="A6" s="3">
+        <v>45792</v>
       </c>
       <c r="B6">
         <v>105</v>
@@ -953,8 +974,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
+      <c r="A7" s="3">
+        <v>45793</v>
       </c>
       <c r="B7">
         <v>106</v>
@@ -964,8 +985,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
+      <c r="A8" s="3">
+        <v>45794</v>
       </c>
       <c r="B8">
         <v>107</v>
@@ -983,9 +1004,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/reservas_hotel.xlsx
+++ b/reservas_hotel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jadson\Downloads\ETL-Definitivo\Pousada-97--main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETL_Definitivo-main\ETL_Definitivo-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A85027-1D30-4E93-9186-E308B1512487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224B8992-9835-420D-9150-2DF4146C6744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="4500" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cliente" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>Id</t>
   </si>
@@ -191,19 +191,13 @@
     <t>2025-05-18</t>
   </si>
   <si>
-    <t>Jadson Oliveira Porto</t>
-  </si>
-  <si>
-    <t>480.227.698-27</t>
-  </si>
-  <si>
     <t>Paulo Augusto</t>
   </si>
   <si>
     <t>480.222.698-27</t>
   </si>
   <si>
-    <t>480.222.000-27</t>
+    <t>Aloisia Andrade</t>
   </si>
 </sst>
 </file>
@@ -576,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,13 +700,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>963349723</v>
       </c>
-      <c r="D9" t="s">
-        <v>56</v>
+      <c r="D9">
+        <v>44444444444</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -720,30 +714,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>963349723</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>9991999222</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
